--- a/ampl/experiments/sol/shock/output/gladlab-knitro-aus-prc.xlsx
+++ b/ampl/experiments/sol/shock/output/gladlab-knitro-aus-prc.xlsx
@@ -217,10 +217,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0065692528758919122</v>
+        <v>0.0065692528824474366</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004906473222219418</v>
+        <v>0.0049064732260763215</v>
       </c>
     </row>
     <row r="3">
@@ -231,10 +231,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>9.6843818300502402</v>
+        <v>9.6843820391987609</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0082977657166570483</v>
+        <v>0.008297765709917861</v>
       </c>
     </row>
     <row r="4">
@@ -245,10 +245,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>0.046013031131823541</v>
+        <v>0.046013031153623644</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0086062637464542815</v>
+        <v>0.0086062637502700174</v>
       </c>
     </row>
     <row r="5">
@@ -259,10 +259,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0037520512433615412</v>
+        <v>0.0037520512462482216</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0037636018438527768</v>
+        <v>0.0037636018467475272</v>
       </c>
     </row>
     <row r="6">
@@ -273,10 +273,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0036240228147050939</v>
+        <v>0.0036240228190348679</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0035137938487486142</v>
+        <v>0.0035137938526339481</v>
       </c>
     </row>
     <row r="7">
@@ -287,10 +287,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0079995714473440668</v>
+        <v>0.0079995714533636977</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0074709129871644757</v>
+        <v>0.0074709129920977604</v>
       </c>
     </row>
     <row r="8">
@@ -301,10 +301,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0077970321458981171</v>
+        <v>0.0077970321493506904</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0077851203483147186</v>
+        <v>0.0077851203517530663</v>
       </c>
     </row>
     <row r="9">
@@ -315,10 +315,10 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>0.010570784759250799</v>
+        <v>0.010570784760577111</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0072328182916497437</v>
+        <v>0.0072328182928707617</v>
       </c>
     </row>
     <row r="10">
@@ -329,10 +329,10 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>0.010620402984290964</v>
+        <v>0.010620402990019288</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0071167893495422086</v>
+        <v>0.0071167893531227638</v>
       </c>
     </row>
     <row r="11">
@@ -343,10 +343,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0062645743042794369</v>
+        <v>0.0062645743086167651</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0047727097445964296</v>
+        <v>0.0047727097477873398</v>
       </c>
     </row>
     <row r="12">
@@ -357,10 +357,10 @@
         <v>6</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0046096533248462142</v>
+        <v>0.004609653326248824</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0045762281047648417</v>
+        <v>0.0045762281061653611</v>
       </c>
     </row>
     <row r="13">
@@ -371,10 +371,10 @@
         <v>6</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0032006495548648423</v>
+        <v>0.0032006495552294287</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0031888921715268531</v>
+        <v>0.0031888921719043814</v>
       </c>
     </row>
     <row r="14">
@@ -385,10 +385,10 @@
         <v>6</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0078953879669684812</v>
+        <v>0.0078953879747093794</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0071178594933698222</v>
+        <v>0.0071178594994428697</v>
       </c>
     </row>
     <row r="15">
@@ -399,10 +399,10 @@
         <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0065924123602720715</v>
+        <v>0.0065924123641591488</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0053631834027019669</v>
+        <v>0.0053631834056428879</v>
       </c>
     </row>
     <row r="16">
@@ -413,10 +413,10 @@
         <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0079799931130575853</v>
+        <v>0.0079799931157258676</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0080488427885472644</v>
+        <v>0.0080488427912783315</v>
       </c>
     </row>
     <row r="17">
@@ -427,10 +427,10 @@
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0096373805247758765</v>
+        <v>0.0096373805275684413</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0094270850178669232</v>
+        <v>0.009427085020537072</v>
       </c>
     </row>
     <row r="18">
@@ -441,10 +441,10 @@
         <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>0.010052511631478517</v>
+        <v>0.010052511632793446</v>
       </c>
       <c r="D18" t="n">
-        <v>0.010017308285073839</v>
+        <v>0.010017308286435137</v>
       </c>
     </row>
     <row r="19">
@@ -455,10 +455,10 @@
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0051983574036940502</v>
+        <v>0.0051983574061072934</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0045062152521654596</v>
+        <v>0.0045062152542311639</v>
       </c>
     </row>
     <row r="20">
@@ -469,10 +469,10 @@
         <v>6</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0050694161112201409</v>
+        <v>0.0050694161133063185</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0049986629565867361</v>
+        <v>0.0049986629586597255</v>
       </c>
     </row>
     <row r="21">
@@ -483,10 +483,10 @@
         <v>7</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0063854825231903561</v>
+        <v>0.0064283343288796709</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0047885682701963618</v>
+        <v>0.0048188426224936255</v>
       </c>
     </row>
     <row r="22">
@@ -497,10 +497,10 @@
         <v>7</v>
       </c>
       <c r="C22" t="n">
-        <v>5.5639952491639209</v>
+        <v>3.2923100975761921</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0083245636458739222</v>
+        <v>0.0085042561367234745</v>
       </c>
     </row>
     <row r="23">
@@ -511,10 +511,10 @@
         <v>7</v>
       </c>
       <c r="C23" t="n">
-        <v>0.045169973636997887</v>
+        <v>0.05516526145208759</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0084530645196661883</v>
+        <v>0.010405576398268022</v>
       </c>
     </row>
     <row r="24">
@@ -525,10 +525,10 @@
         <v>7</v>
       </c>
       <c r="C24" t="n">
-        <v>0.003669892390241139</v>
+        <v>0.0035176534716765194</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0036810377044474082</v>
+        <v>0.0035276831052710902</v>
       </c>
     </row>
     <row r="25">
@@ -539,10 +539,10 @@
         <v>7</v>
       </c>
       <c r="C25" t="n">
-        <v>0.003559567121394418</v>
+        <v>0.0035003939336604806</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0034564040395186858</v>
+        <v>0.0034060262998012705</v>
       </c>
     </row>
     <row r="26">
@@ -553,10 +553,10 @@
         <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0078365595334631052</v>
+        <v>0.0077042048232094443</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0073309241276758681</v>
+        <v>0.0072198938249473351</v>
       </c>
     </row>
     <row r="27">
@@ -567,10 +567,10 @@
         <v>7</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0076791401792686322</v>
+        <v>0.0075898559418690007</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0076674695352698038</v>
+        <v>0.0075755584032157416</v>
       </c>
     </row>
     <row r="28">
@@ -581,10 +581,10 @@
         <v>7</v>
       </c>
       <c r="C28" t="n">
-        <v>0.010450224728559146</v>
+        <v>0.010484476510234497</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0071510941483956068</v>
+        <v>0.0071722958651268629</v>
       </c>
     </row>
     <row r="29">
@@ -595,10 +595,10 @@
         <v>7</v>
       </c>
       <c r="C29" t="n">
-        <v>0.010401793334877807</v>
+        <v>0.010353487341055005</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0069752223364630125</v>
+        <v>0.0069448151168824386</v>
       </c>
     </row>
     <row r="30">
@@ -609,10 +609,10 @@
         <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0061322732923126764</v>
+        <v>0.0060586258448357133</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0046737397726809614</v>
+        <v>0.004618363243502354</v>
       </c>
     </row>
     <row r="31">
@@ -623,10 +623,10 @@
         <v>7</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0044891749353673932</v>
+        <v>0.0044039700123535939</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0044565021940709071</v>
+        <v>0.0043701686391642873</v>
       </c>
     </row>
     <row r="32">
@@ -637,10 +637,10 @@
         <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>0.003074226303902217</v>
+        <v>0.0030341255771608004</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0030626614585665588</v>
+        <v>0.0030212114399744395</v>
       </c>
     </row>
     <row r="33">
@@ -651,10 +651,10 @@
         <v>7</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0077285584355261377</v>
+        <v>0.0074866033143364003</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0069829443703348362</v>
+        <v>0.0067869438716258073</v>
       </c>
     </row>
     <row r="34">
@@ -665,10 +665,10 @@
         <v>7</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0065222588833159191</v>
+        <v>0.0063933108080743255</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0053090044905479391</v>
+        <v>0.0052077957760795776</v>
       </c>
     </row>
     <row r="35">
@@ -679,10 +679,10 @@
         <v>7</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0079038517823678111</v>
+        <v>0.0078126337919887951</v>
       </c>
       <c r="D35" t="n">
-        <v>0.007971138776601645</v>
+        <v>0.0078750084790124852</v>
       </c>
     </row>
     <row r="36">
@@ -693,10 +693,10 @@
         <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>0.009596420584958092</v>
+        <v>0.0094755177596258042</v>
       </c>
       <c r="D36" t="n">
-        <v>0.009387742074509136</v>
+        <v>0.0092678786726013134</v>
       </c>
     </row>
     <row r="37">
@@ -707,10 +707,10 @@
         <v>7</v>
       </c>
       <c r="C37" t="n">
-        <v>0.010003643026905045</v>
+        <v>0.0099294611084738121</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0099674534965340494</v>
+        <v>0.0098883058884528148</v>
       </c>
     </row>
     <row r="38">
@@ -721,10 +721,10 @@
         <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0051789263743288018</v>
+        <v>0.0051703265345527339</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0044895449785395305</v>
+        <v>0.0044811024169603784</v>
       </c>
     </row>
     <row r="39">
@@ -735,10 +735,10 @@
         <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0050029931686347961</v>
+        <v>0.0050030156051434106</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0049327611542016505</v>
+        <v>0.0049303694478308674</v>
       </c>
     </row>
     <row r="40">
@@ -749,10 +749,10 @@
         <v>8</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0062406088624424316</v>
+        <v>0.0063406158384813199</v>
       </c>
       <c r="D40" t="n">
-        <v>0.004693882028361321</v>
+        <v>0.0047606878781183033</v>
       </c>
     </row>
     <row r="41">
@@ -763,10 +763,10 @@
         <v>8</v>
       </c>
       <c r="C41" t="n">
-        <v>3.6860394049383158</v>
+        <v>2.658261677986562</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0083414360360594339</v>
+        <v>0.0085030866946273834</v>
       </c>
     </row>
     <row r="42">
@@ -777,10 +777,10 @@
         <v>8</v>
       </c>
       <c r="C42" t="n">
-        <v>0.044484676734119842</v>
+        <v>0.05457549115409966</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0083280229473401118</v>
+        <v>0.010296072882860824</v>
       </c>
     </row>
     <row r="43">
@@ -791,10 +791,10 @@
         <v>8</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0036042827437663869</v>
+        <v>0.0035308084891429274</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0036151195985287929</v>
+        <v>0.0035407690733959625</v>
       </c>
     </row>
     <row r="44">
@@ -805,10 +805,10 @@
         <v>8</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0035164297088541171</v>
+        <v>0.003488023559308009</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0034180510542897243</v>
+        <v>0.0033955045816051826</v>
       </c>
     </row>
     <row r="45">
@@ -819,10 +819,10 @@
         <v>8</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0077072996469424631</v>
+        <v>0.0076366032547371737</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0072187942115368104</v>
+        <v>0.0071606637830319286</v>
       </c>
     </row>
     <row r="46">
@@ -833,10 +833,10 @@
         <v>8</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0075840965655737808</v>
+        <v>0.0075286467339499728</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0075725980438666437</v>
+        <v>0.0075145030454718525</v>
       </c>
     </row>
     <row r="47">
@@ -847,10 +847,10 @@
         <v>8</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01034628988934114</v>
+        <v>0.010413832356695274</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0070805263019403462</v>
+        <v>0.0071242633817524036</v>
       </c>
     </row>
     <row r="48">
@@ -861,10 +861,10 @@
         <v>8</v>
       </c>
       <c r="C48" t="n">
-        <v>0.010227307017072772</v>
+        <v>0.010248078739797401</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0068617492234838611</v>
+        <v>0.0068759109575553187</v>
       </c>
     </row>
     <row r="49">
@@ -875,10 +875,10 @@
         <v>8</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0060260391675259579</v>
+        <v>0.0060129848272251069</v>
       </c>
       <c r="D49" t="n">
-        <v>0.00459408443914874</v>
+        <v>0.0045840927010338929</v>
       </c>
     </row>
     <row r="50">
@@ -889,10 +889,10 @@
         <v>8</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0043985727863010407</v>
+        <v>0.0043468734698584813</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0043664609669699832</v>
+        <v>0.0043134718114194448</v>
       </c>
     </row>
     <row r="51">
@@ -903,10 +903,10 @@
         <v>8</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0029868622308104817</v>
+        <v>0.002971570819486236</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0029754247786841327</v>
+        <v>0.0029588292901527682</v>
       </c>
     </row>
     <row r="52">
@@ -917,10 +917,10 @@
         <v>8</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0075961571932066652</v>
+        <v>0.0074307548053437504</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0068745006079202493</v>
+        <v>0.0067410265893634667</v>
       </c>
     </row>
     <row r="53">
@@ -931,10 +931,10 @@
         <v>8</v>
       </c>
       <c r="C53" t="n">
-        <v>0.006463450928150683</v>
+        <v>0.0063583907038028825</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0052632187137220407</v>
+        <v>0.0051803217287598787</v>
       </c>
     </row>
     <row r="54">
@@ -945,10 +945,10 @@
         <v>8</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0078390272154880061</v>
+        <v>0.0077723177215585811</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0079051042856434339</v>
+        <v>0.0078340570322108834</v>
       </c>
     </row>
     <row r="55">
@@ -959,10 +959,10 @@
         <v>8</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0095545705860221302</v>
+        <v>0.0094544477966035465</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0093473249111498645</v>
+        <v>0.009247500386868758</v>
       </c>
     </row>
     <row r="56">
@@ -973,10 +973,10 @@
         <v>8</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0099567481090055247</v>
+        <v>0.0098928826349062686</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0099198845126518623</v>
+        <v>0.0098514765817128043</v>
       </c>
     </row>
     <row r="57">
@@ -987,10 +987,10 @@
         <v>8</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0051703290403710246</v>
+        <v>0.0051799367762708527</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0044821861305509979</v>
+        <v>0.00448942247824974</v>
       </c>
     </row>
     <row r="58">
@@ -1001,10 +1001,10 @@
         <v>8</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0049469213364274813</v>
+        <v>0.0049623963364967012</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0048771826898914052</v>
+        <v>0.0048902045094949918</v>
       </c>
     </row>
     <row r="59">
@@ -1015,10 +1015,10 @@
         <v>9</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0061305672026707439</v>
+        <v>0.0062690726253979883</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0046203788701609143</v>
+        <v>0.0047121465940318987</v>
       </c>
     </row>
     <row r="60">
@@ -1029,10 +1029,10 @@
         <v>9</v>
       </c>
       <c r="C60" t="n">
-        <v>2.7751766823727326</v>
+        <v>2.2887712582606863</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0083390815807305816</v>
+        <v>0.0084886310664350588</v>
       </c>
     </row>
     <row r="61">
@@ -1043,10 +1043,10 @@
         <v>9</v>
       </c>
       <c r="C61" t="n">
-        <v>0.043927262509928851</v>
+        <v>0.054065035672580801</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0082258396207071822</v>
+        <v>0.010200962466271384</v>
       </c>
     </row>
     <row r="62">
@@ -1057,10 +1057,10 @@
         <v>9</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0035526788635267385</v>
+        <v>0.0035171567343556362</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0035632871383990956</v>
+        <v>0.0035270221798835324</v>
       </c>
     </row>
     <row r="63">
@@ -1071,10 +1071,10 @@
         <v>9</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0034934606634415039</v>
+        <v>0.0034853096540172802</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0033978624117033669</v>
+        <v>0.0033936918632493799</v>
       </c>
     </row>
     <row r="64">
@@ -1085,10 +1085,10 @@
         <v>9</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0076079436377142996</v>
+        <v>0.0075786431365619375</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0071315585767226007</v>
+        <v>0.0071090828525772658</v>
       </c>
     </row>
     <row r="65">
@@ -1099,10 +1099,10 @@
         <v>9</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0075082582377104081</v>
+        <v>0.0074774520694248095</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0074968878232404522</v>
+        <v>0.0074634160132823731</v>
       </c>
     </row>
     <row r="66">
@@ -1113,10 +1113,10 @@
         <v>9</v>
       </c>
       <c r="C66" t="n">
-        <v>0.010259130130915999</v>
+        <v>0.010350362025417325</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0070212244910149487</v>
+        <v>0.0070810181026234962</v>
       </c>
     </row>
     <row r="67">
@@ -1127,10 +1127,10 @@
         <v>9</v>
       </c>
       <c r="C67" t="n">
-        <v>0.010090328953191084</v>
+        <v>0.010158573595590368</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0067721833188435897</v>
+        <v>0.0068170646511555022</v>
       </c>
     </row>
     <row r="68">
@@ -1141,10 +1141,10 @@
         <v>9</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0059420466317118038</v>
+        <v>0.0059674951760433428</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0045309498708882524</v>
+        <v>0.0045497980997743397</v>
       </c>
     </row>
     <row r="69">
@@ -1155,10 +1155,10 @@
         <v>9</v>
       </c>
       <c r="C69" t="n">
-        <v>0.004329461683515722</v>
+        <v>0.0043022483886119784</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0042977835964583275</v>
+        <v>0.0042691589337456931</v>
       </c>
     </row>
     <row r="70">
@@ -1169,10 +1169,10 @@
         <v>9</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0029234477207724782</v>
+        <v>0.0029273394350090524</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0029121164480712426</v>
+        <v>0.0029147220050261902</v>
       </c>
     </row>
     <row r="71">
@@ -1183,10 +1183,10 @@
         <v>9</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0074970925590428106</v>
+        <v>0.0073802051543054329</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0067921712141539728</v>
+        <v>0.0066983589773226774</v>
       </c>
     </row>
     <row r="72">
@@ -1197,10 +1197,10 @@
         <v>9</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0064174910401784118</v>
+        <v>0.0063286445317991581</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0052270872551431515</v>
+        <v>0.0051566584189946243</v>
       </c>
     </row>
     <row r="73">
@@ -1211,10 +1211,10 @@
         <v>9</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0077852844787522253</v>
+        <v>0.0077356786335194992</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0078504665292077128</v>
+        <v>0.0077969154472332528</v>
       </c>
     </row>
     <row r="74">
@@ -1225,10 +1225,10 @@
         <v>9</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0095169664626291658</v>
+        <v>0.0094311148834714392</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0093108440176659056</v>
+        <v>0.0092248051092712682</v>
       </c>
     </row>
     <row r="75">
@@ -1239,10 +1239,10 @@
         <v>9</v>
       </c>
       <c r="C75" t="n">
-        <v>0.009914326739123059</v>
+        <v>0.0098586958123180624</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0098770513886422152</v>
+        <v>0.0098171607966421881</v>
       </c>
     </row>
     <row r="76">
@@ -1253,10 +1253,10 @@
         <v>9</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0051709889583072405</v>
+        <v>0.005193118958946712</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0044828019763462259</v>
+        <v>0.0045008048153158094</v>
       </c>
     </row>
     <row r="77">
@@ -1267,10 +1267,10 @@
         <v>9</v>
       </c>
       <c r="C77" t="n">
-        <v>0.00490122341137679</v>
+        <v>0.0049281149094526086</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0048319296752334746</v>
+        <v>0.0048563284859757094</v>
       </c>
     </row>
     <row r="78">
